--- a/Práctico/Trabajos Prácticos/Evaluables/TP N° 3-4/Plantilla de Ítems de Configuración.xlsx
+++ b/Práctico/Trabajos Prácticos/Evaluables/TP N° 3-4/Plantilla de Ítems de Configuración.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joaquin2\Estudio\Ingenieria en Sistemas\4to Año\ISW - Ingeniería de Software\TP Evaluables\TP N° 3-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AB2EC0-892A-4594-9056-D7FE5DBC56FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62F09BC7-D7C2-45C5-9E3C-F53799626458}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -44,9 +43,6 @@
     <t>Filminas Clases Teóricas</t>
   </si>
   <si>
-    <t>Nombre del Tema.pdf</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -64,9 +60,6 @@
     <t>Apuntes Clases Teóricas</t>
   </si>
   <si>
-    <t>Nombre del Tema - Autor.jpg</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -98,9 +91,6 @@
     </r>
   </si>
   <si>
-    <t>Trabajo conceptual N° N.pdf</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -118,9 +108,6 @@
     <t>Documentos varios</t>
   </si>
   <si>
-    <t>Nombre del documento.pdf</t>
-  </si>
-  <si>
     <t>Papers</t>
   </si>
   <si>
@@ -141,9 +128,6 @@
     <t>Bibliografía</t>
   </si>
   <si>
-    <t>Nombre del Libro - Autor - Edición.ext</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -195,9 +179,6 @@
     <t>Trabajos prácticos no evaluables</t>
   </si>
   <si>
-    <t>Trabajo práctico N° N - Autor.jpg</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -215,9 +196,6 @@
     <t>Estructura del Repositorio</t>
   </si>
   <si>
-    <t>Estructura de Repositorio.jpg</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -235,9 +213,6 @@
     <t>Plantilla de Ítems de Configuración</t>
   </si>
   <si>
-    <t>Plantilla de Ítems.xlsx</t>
-  </si>
-  <si>
     <r>
       <t>ISW_Grupo2_2019</t>
     </r>
@@ -255,9 +230,6 @@
     <t>Código fuente</t>
   </si>
   <si>
-    <t>Nombre clase.ext</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -275,9 +247,6 @@
     </r>
   </si>
   <si>
-    <t>Nombre User Story.ext</t>
-  </si>
-  <si>
     <t>Glosario</t>
   </si>
   <si>
@@ -296,12 +265,57 @@
       </rPr>
       <t>/Práctico/Documentos Varios/</t>
     </r>
+  </si>
+  <si>
+    <t>NombreClase.&lt;extension&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NombreDelTema&gt;.pdf</t>
+  </si>
+  <si>
+    <t>&lt;NombreDelTema&gt; - &lt;Autor&gt;.jpg</t>
+  </si>
+  <si>
+    <t>Trabajo_conceptual_N°_&lt;Nro&gt;.pdf</t>
+  </si>
+  <si>
+    <t>&lt;NombreDelTrabajo&gt;.pdf</t>
+  </si>
+  <si>
+    <t>&lt;NombrePapers&gt;.pdf</t>
+  </si>
+  <si>
+    <t>&lt;NombreDelLibro&gt; - &lt;Autor&gt; - &lt;Edición&gt;.&lt;extension&gt;</t>
+  </si>
+  <si>
+    <t>Trabajo_practico_N°_&lt;Nro&gt;.pdf</t>
+  </si>
+  <si>
+    <t>Plantilla_de_items_de_Configuracion.xlsx</t>
+  </si>
+  <si>
+    <t>US_Nro_&lt;NombreUS&gt;.docx</t>
+  </si>
+  <si>
+    <t>&lt;extension&gt;: Indica la extension del archivo identificado como elemento de configuracion</t>
+  </si>
+  <si>
+    <t>&lt;Nro&gt;: Indica el numero asignado a dicho elemento de configuracion</t>
+  </si>
+  <si>
+    <t>Estructura_de_Repositorio_V_&lt;Version&gt;.jpg</t>
+  </si>
+  <si>
+    <t>&lt;Version&gt;: Indica la version del elemento de configuracion. Ejemplo: 1_00</t>
+  </si>
+  <si>
+    <t>&lt;NombreUS&gt; Nombre de la User Story</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E932AE-07CF-47EC-AE5A-3B22AB7EA36D}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,151 +724,173 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Práctico/Trabajos Prácticos/Evaluables/TP N° 3-4/Plantilla de Ítems de Configuración.xlsx
+++ b/Práctico/Trabajos Prácticos/Evaluables/TP N° 3-4/Plantilla de Ítems de Configuración.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Item</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>&lt;NombreUS&gt; Nombre de la User Story</t>
+  </si>
+  <si>
+    <t>Tipo de Ítem [Producto / Proyecto / Iteración]</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Iteracion</t>
+  </si>
+  <si>
+    <t>Producto</t>
   </si>
 </sst>
 </file>
@@ -347,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -370,17 +382,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,169 +787,214 @@
     <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
